--- a/data/seguimiento_clientes_actualizado.xlsx
+++ b/data/seguimiento_clientes_actualizado.xlsx
@@ -441,17 +441,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Contacto</t>
+          <t>Número de caso</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de caso</t>
+          <t>Estado</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Estado</t>
+          <t>Tiempo estimado</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -466,22 +466,22 @@
           <t>Luis Ramírez</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>+573004567890</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2" t="n">
         <v>45678</v>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>En revisión por el área financiera</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>En revisión por el área financiera</t>
+          <t>24 horas</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-08-15 13:09:38</t>
+          <t>2025-08-16 05:56:06</t>
         </is>
       </c>
     </row>
@@ -491,22 +491,22 @@
           <t>María Gómez</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>maria.gomez@email.com</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3" t="n">
         <v>45679</v>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Esperando respuesta del cliente</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Esperando respuesta del cliente</t>
+          <t>24 horas</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-08-15 13:09:38</t>
+          <t>2025-08-16 05:56:06</t>
         </is>
       </c>
     </row>
@@ -516,22 +516,22 @@
           <t>Andrés Pérez</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>+573115432198</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4" t="n">
         <v>45680</v>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Enviado a soporte técnico</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Enviado a soporte técnico</t>
+          <t>48 horas</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-08-15 13:09:38</t>
+          <t>2025-08-16 05:56:06</t>
         </is>
       </c>
     </row>
@@ -541,22 +541,22 @@
           <t>Carla Torres</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>carla.torres@email.com</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5" t="n">
         <v>45681</v>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Resuelto</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Resuelto</t>
+          <t>0 horas</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-08-15 13:09:38</t>
+          <t>2025-08-16 05:56:06</t>
         </is>
       </c>
     </row>
@@ -566,22 +566,22 @@
           <t>Juan Rodríguez</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>+573224567890</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6" t="n">
         <v>45682</v>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Pendiente de documentación</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Pendiente de documentación</t>
+          <t>72 horas</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-08-15 13:09:38</t>
+          <t>2025-08-16 05:56:06</t>
         </is>
       </c>
     </row>

--- a/data/seguimiento_clientes_actualizado.xlsx
+++ b/data/seguimiento_clientes_actualizado.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-08-16 05:56:06</t>
+          <t>2025-08-16 14:46:27</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-08-16 05:56:06</t>
+          <t>2025-08-16 14:46:27</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-08-16 05:56:06</t>
+          <t>2025-08-16 14:46:27</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-08-16 05:56:06</t>
+          <t>2025-08-16 14:46:27</t>
         </is>
       </c>
     </row>
@@ -581,7 +581,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-08-16 05:56:06</t>
+          <t>2025-08-16 14:46:27</t>
         </is>
       </c>
     </row>

--- a/data/seguimiento_clientes_actualizado.xlsx
+++ b/data/seguimiento_clientes_actualizado.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-08-16 14:46:27</t>
+          <t>2025-08-16 17:22:42</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-08-16 14:46:27</t>
+          <t>2025-08-16 17:22:42</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-08-16 14:46:27</t>
+          <t>2025-08-16 17:22:42</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-08-16 14:46:27</t>
+          <t>2025-08-16 17:22:42</t>
         </is>
       </c>
     </row>
@@ -581,7 +581,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-08-16 14:46:27</t>
+          <t>2025-08-16 17:22:42</t>
         </is>
       </c>
     </row>
